--- a/DeNumeroALetra/src/test/Prueba_de_escritorio_Conversor.xlsx
+++ b/DeNumeroALetra/src/test/Prueba_de_escritorio_Conversor.xlsx
@@ -62,12 +62,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,8 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,8 +418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,37 +430,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/DeNumeroALetra/src/test/Prueba_de_escritorio_Conversor.xlsx
+++ b/DeNumeroALetra/src/test/Prueba_de_escritorio_Conversor.xlsx
@@ -9,12 +9,238 @@
   <sheets>
     <sheet name="letranum" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+numero: String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ENTERO: String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DECIMAL: String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SALIDA: String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+paso: Boolean</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Espacios: String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+entrada: String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Retorna un String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Arroja un Exception</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>numero</t>
   </si>
@@ -47,19 +273,38 @@
   </si>
   <si>
     <t>throws</t>
+  </si>
+  <si>
+    <t>1234.45</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -106,12 +351,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,16 +671,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" customWidth="1"/>
     <col min="8" max="8" width="23.36328125" customWidth="1"/>
     <col min="9" max="9" width="25.6328125" customWidth="1"/>
   </cols>
@@ -451,21 +711,248 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="str">
+        <f>"00000000000000000000000000000"</f>
+        <v>00000000000000000000000000000</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="str">
+        <f>"000000000001234.45"</f>
+        <v>000000000001234.45</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="str">
+        <f>"000000000001234"</f>
+        <v>000000000001234</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="str">
+        <f>"000000000000045"</f>
+        <v>000000000000045</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DeNumeroALetra/src/test/Prueba_de_escritorio_Conversor.xlsx
+++ b/DeNumeroALetra/src/test/Prueba_de_escritorio_Conversor.xlsx
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>numero</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>MIL DOSCIENTOS TREINTA Y CUATROPESOS CON</t>
   </si>
 </sst>
 </file>
@@ -674,19 +680,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="52.453125" customWidth="1"/>
     <col min="6" max="6" width="30.81640625" customWidth="1"/>
     <col min="7" max="7" width="19.54296875" customWidth="1"/>
     <col min="8" max="8" width="23.36328125" customWidth="1"/>
     <col min="9" max="9" width="25.6328125" customWidth="1"/>
+    <col min="10" max="10" width="51.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -841,7 +849,9 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -850,7 +860,9 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -868,7 +880,9 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
@@ -876,7 +890,10 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="str">
+        <f>CONCATENATE(D10,"45CENTAVOS")</f>
+        <v>MIL DOSCIENTOS TREINTA Y CUATROPESOS CON45CENTAVOS</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -895,7 +912,10 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5" t="str">
+        <f>D12</f>
+        <v>MIL DOSCIENTOS TREINTA Y CUATROPESOS CON45CENTAVOS</v>
+      </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
